--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1649413333333334</v>
+        <v>0.4347226666666668</v>
       </c>
       <c r="H2">
-        <v>0.494824</v>
+        <v>1.304168</v>
       </c>
       <c r="I2">
-        <v>0.001428891878212108</v>
+        <v>0.00308384331793249</v>
       </c>
       <c r="J2">
-        <v>0.001428891878212107</v>
+        <v>0.00308384331793249</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -567,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04529739852977779</v>
+        <v>0.1193867266862222</v>
       </c>
       <c r="R2">
-        <v>0.4076765867680001</v>
+        <v>1.074480540176</v>
       </c>
       <c r="S2">
-        <v>0.001428891878212108</v>
+        <v>0.00308384331793249</v>
       </c>
       <c r="T2">
-        <v>0.001428891878212107</v>
+        <v>0.00308384331793249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -599,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.781516</v>
+        <v>140.5330963333333</v>
       </c>
       <c r="H3">
-        <v>5.344548</v>
+        <v>421.599289</v>
       </c>
       <c r="I3">
-        <v>0.01543332827412325</v>
+        <v>0.9969161566820676</v>
       </c>
       <c r="J3">
-        <v>0.01543332827412325</v>
+        <v>0.9969161566820675</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,78 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4892529883706666</v>
+        <v>38.59422949109977</v>
       </c>
       <c r="R3">
-        <v>4.403276895336</v>
+        <v>347.348065419898</v>
       </c>
       <c r="S3">
-        <v>0.01543332827412325</v>
+        <v>0.9969161566820676</v>
       </c>
       <c r="T3">
-        <v>0.01543332827412325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>113.4865826666667</v>
-      </c>
-      <c r="H4">
-        <v>340.459748</v>
-      </c>
-      <c r="I4">
-        <v>0.9831377798476647</v>
-      </c>
-      <c r="J4">
-        <v>0.9831377798476646</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.2746273333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.823882</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>31.16651756685955</v>
-      </c>
-      <c r="R4">
-        <v>280.498658101736</v>
-      </c>
-      <c r="S4">
-        <v>0.9831377798476647</v>
-      </c>
-      <c r="T4">
-        <v>0.9831377798476646</v>
+        <v>0.9969161566820675</v>
       </c>
     </row>
   </sheetData>
